--- a/data/trans_orig/IP1020-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1020-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EA28061-E2C1-4D00-9770-C4D525BCD881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADDD9830-22D5-418A-8888-703883DA9B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{683BFF34-237E-46DF-830D-7670207D9DEE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B66486F9-D0D3-4AEB-A96F-DA573AF8B8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -104,7 +104,7 @@
     <t>1,56%</t>
   </si>
   <si>
-    <t>5,42%</t>
+    <t>5,46%</t>
   </si>
   <si>
     <t>1,4%</t>
@@ -113,13 +113,13 @@
     <t>0,76%</t>
   </si>
   <si>
-    <t>2,31%</t>
+    <t>2,94%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>94,58%</t>
+    <t>94,54%</t>
   </si>
   <si>
     <t>98,6%</t>
@@ -128,7 +128,7 @@
     <t>99,24%</t>
   </si>
   <si>
-    <t>97,69%</t>
+    <t>97,06%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -137,490 +137,490 @@
     <t>0,94%</t>
   </si>
   <si>
-    <t>0,4%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos crónicos de la piel en 2012 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
   </si>
   <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
   </si>
   <si>
     <t>98,18%</t>
   </si>
   <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos crónicos de la piel en 2012 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos crónicos de la piel en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
   </si>
   <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
   </si>
   <si>
     <t>98,29%</t>
   </si>
   <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos crónicos de la piel en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
   </si>
   <si>
     <t>98,48%</t>
   </si>
   <si>
-    <t>97,96%</t>
+    <t>97,92%</t>
   </si>
   <si>
     <t>98,94%</t>
@@ -632,43 +632,46 @@
     <t>6,19%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
   </si>
   <si>
     <t>4,42%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
   </si>
   <si>
     <t>5,37%</t>
   </si>
   <si>
+    <t>2,58%</t>
+  </si>
+  <si>
     <t>10,35%</t>
   </si>
   <si>
     <t>93,81%</t>
   </si>
   <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
   </si>
   <si>
     <t>95,58%</t>
   </si>
   <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
   </si>
   <si>
     <t>94,63%</t>
@@ -677,10 +680,13 @@
     <t>89,65%</t>
   </si>
   <si>
+    <t>97,42%</t>
+  </si>
+  <si>
     <t>3,17%</t>
   </si>
   <si>
-    <t>4,77%</t>
+    <t>4,68%</t>
   </si>
   <si>
     <t>3,19%</t>
@@ -689,7 +695,7 @@
     <t>2,0%</t>
   </si>
   <si>
-    <t>4,91%</t>
+    <t>4,89%</t>
   </si>
   <si>
     <t>3,18%</t>
@@ -698,19 +704,19 @@
     <t>2,35%</t>
   </si>
   <si>
-    <t>4,38%</t>
+    <t>4,26%</t>
   </si>
   <si>
     <t>96,83%</t>
   </si>
   <si>
-    <t>95,23%</t>
+    <t>95,32%</t>
   </si>
   <si>
     <t>96,81%</t>
   </si>
   <si>
-    <t>95,09%</t>
+    <t>95,11%</t>
   </si>
   <si>
     <t>98,0%</t>
@@ -719,7 +725,7 @@
     <t>96,82%</t>
   </si>
   <si>
-    <t>95,62%</t>
+    <t>95,74%</t>
   </si>
   <si>
     <t>97,65%</t>
@@ -728,52 +734,43 @@
     <t>2,71%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
+    <t>5,67%</t>
   </si>
   <si>
     <t>4,05%</t>
   </si>
   <si>
-    <t>7,25%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
   </si>
   <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
     <t>97,29%</t>
   </si>
   <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>94,33%</t>
   </si>
   <si>
     <t>95,95%</t>
   </si>
   <si>
-    <t>92,75%</t>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
   </si>
   <si>
     <t>96,67%</t>
   </si>
   <si>
-    <t>94,55%</t>
-  </si>
-  <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
+    <t>4,62%</t>
   </si>
   <si>
     <t>3,48%</t>
@@ -782,31 +779,34 @@
     <t>2,38%</t>
   </si>
   <si>
+    <t>4,9%</t>
+  </si>
+  <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>4,26%</t>
+    <t>4,34%</t>
   </si>
   <si>
     <t>96,7%</t>
   </si>
   <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
+    <t>95,38%</t>
   </si>
   <si>
     <t>96,52%</t>
   </si>
   <si>
+    <t>95,1%</t>
+  </si>
+  <si>
     <t>97,62%</t>
   </si>
   <si>
     <t>96,61%</t>
   </si>
   <si>
-    <t>95,74%</t>
+    <t>95,66%</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4624B042-F660-4388-BCA7-3275A45AB763}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF7E71F-D01E-432C-8A71-DFF09306A76E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1801,13 +1801,13 @@
         <v>598</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -1816,13 +1816,13 @@
         <v>1267</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -1834,10 +1834,10 @@
         <v>38</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1852,10 +1852,10 @@
         <v>157540</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>16</v>
@@ -1867,10 +1867,10 @@
         <v>172799</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -1885,10 +1885,10 @@
         <v>48</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,13 +1956,13 @@
         <v>6453</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -1971,13 +1971,13 @@
         <v>5387</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -1986,13 +1986,13 @@
         <v>11840</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2007,13 +2007,13 @@
         <v>716247</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
         <v>1010</v>
@@ -2022,13 +2022,13 @@
         <v>675634</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="M17" s="7">
         <v>2086</v>
@@ -2037,13 +2037,13 @@
         <v>1391881</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2099,7 +2099,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2119,7 +2119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93CF9DA8-F8FA-42D2-953A-046AFFE13EE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81C7EDB-F071-409F-9D1F-7F683015FC43}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2136,7 +2136,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2392,13 +2392,13 @@
         <v>4936</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -2407,13 +2407,13 @@
         <v>2658</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -2422,13 +2422,13 @@
         <v>7594</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,13 +2443,13 @@
         <v>78601</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H8" s="7">
         <v>129</v>
@@ -2458,13 +2458,13 @@
         <v>89231</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M8" s="7">
         <v>239</v>
@@ -2473,13 +2473,13 @@
         <v>167831</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,13 +2547,13 @@
         <v>4249</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -2562,13 +2562,13 @@
         <v>10330</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -2577,13 +2577,13 @@
         <v>14579</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,13 +2598,13 @@
         <v>488155</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H11" s="7">
         <v>636</v>
@@ -2613,13 +2613,13 @@
         <v>439370</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M11" s="7">
         <v>1335</v>
@@ -2628,13 +2628,13 @@
         <v>927524</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,13 +2702,13 @@
         <v>1288</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -2717,13 +2717,13 @@
         <v>5290</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -2732,13 +2732,13 @@
         <v>6578</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,10 +2753,10 @@
         <v>170273</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>16</v>
@@ -2768,13 +2768,13 @@
         <v>160050</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M14" s="7">
         <v>468</v>
@@ -2783,13 +2783,13 @@
         <v>330323</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,10 +2860,10 @@
         <v>22</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="H16" s="7">
         <v>26</v>
@@ -2872,13 +2872,13 @@
         <v>18278</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -2887,13 +2887,13 @@
         <v>28751</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,10 +2911,10 @@
         <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H17" s="7">
         <v>992</v>
@@ -2923,13 +2923,13 @@
         <v>688650</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M17" s="7">
         <v>2043</v>
@@ -2938,13 +2938,13 @@
         <v>1426319</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,7 +3000,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3020,7 +3020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEF865C-EE24-40FE-A142-DE4CA10841E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663CAD5E-76D5-4B91-93E2-3FF5E39D53B7}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3037,7 +3037,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3281,13 +3281,13 @@
         <v>1327</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3302,7 +3302,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3311,13 +3311,13 @@
         <v>1327</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,10 +3332,10 @@
         <v>67287</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -3350,7 +3350,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -3362,10 +3362,10 @@
         <v>126666</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -3436,13 +3436,13 @@
         <v>6063</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -3451,13 +3451,13 @@
         <v>8041</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -3466,13 +3466,13 @@
         <v>14104</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3487,13 @@
         <v>482672</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H11" s="7">
         <v>701</v>
@@ -3502,13 +3502,13 @@
         <v>464249</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M11" s="7">
         <v>1387</v>
@@ -3517,13 +3517,13 @@
         <v>946921</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>43</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,13 +3591,13 @@
         <v>5315</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3606,13 +3606,13 @@
         <v>1231</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -3621,13 +3621,13 @@
         <v>6546</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,13 +3642,13 @@
         <v>182180</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H14" s="7">
         <v>256</v>
@@ -3657,10 +3657,10 @@
         <v>171472</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -3672,7 +3672,7 @@
         <v>353651</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>181</v>
@@ -3746,10 +3746,10 @@
         <v>12706</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>184</v>
@@ -3761,10 +3761,10 @@
         <v>9273</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>185</v>
@@ -3797,13 +3797,13 @@
         <v>732138</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="H17" s="7">
         <v>1046</v>
@@ -3812,13 +3812,13 @@
         <v>695098</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="M17" s="7">
         <v>2093</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -3909,7 +3909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{914F66B6-833E-4B7C-A905-E5D5B608012A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9036B0FE-7B1F-4856-8C06-1E4DA6CBA42F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4215,10 +4215,10 @@
         <v>202</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>105</v>
+        <v>203</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,13 +4233,13 @@
         <v>55118</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H8" s="7">
         <v>65</v>
@@ -4248,13 +4248,13 @@
         <v>48941</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>144</v>
@@ -4263,13 +4263,13 @@
         <v>104060</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,13 +4337,13 @@
         <v>15599</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -4352,13 +4352,13 @@
         <v>14321</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M10" s="7">
         <v>43</v>
@@ -4367,13 +4367,13 @@
         <v>29920</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,13 +4388,13 @@
         <v>476765</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="H11" s="7">
         <v>623</v>
@@ -4403,13 +4403,13 @@
         <v>434815</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M11" s="7">
         <v>1255</v>
@@ -4418,13 +4418,13 @@
         <v>911580</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,13 +4492,13 @@
         <v>4736</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -4507,13 +4507,13 @@
         <v>6131</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>233</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -4522,13 +4522,13 @@
         <v>10867</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,13 +4543,13 @@
         <v>169847</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="H14" s="7">
         <v>221</v>
@@ -4564,7 +4564,7 @@
         <v>239</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="M14" s="7">
         <v>453</v>
@@ -4573,13 +4573,13 @@
         <v>315085</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,10 +4650,10 @@
         <v>242</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -4662,13 +4662,13 @@
         <v>22713</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -4680,7 +4680,7 @@
         <v>247</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>248</v>
@@ -4704,7 +4704,7 @@
         <v>250</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>251</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
         <v>910</v>
@@ -4713,10 +4713,10 @@
         <v>630166</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>253</v>
@@ -4734,7 +4734,7 @@
         <v>255</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,7 +4790,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1020-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1020-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADDD9830-22D5-418A-8888-703883DA9B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{928AED5E-BDE4-419B-BCFB-83816C37E266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B66486F9-D0D3-4AEB-A96F-DA573AF8B8EA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{22643A80-818A-4F35-B44F-638CE4CF75E9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="252">
   <si>
     <t>Menores según si padecen trastornos crónicos de la piel en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,10 +80,19 @@
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,181 +101,160 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>98,6%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
+    <t>94,96%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>97,06%</t>
+    <t>97,45%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
     <t>0,94%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
+    <t>1,93%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
   </si>
   <si>
     <t>99,44%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
+    <t>98,48%</t>
   </si>
   <si>
     <t>99,82%</t>
   </si>
   <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
+    <t>0,43%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
   </si>
   <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
+    <t>99,57%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
+    <t>98,72%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -275,538 +263,538 @@
     <t>Menores según si padecen trastornos crónicos de la piel en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
     <t>5,91%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
   </si>
   <si>
     <t>99,25%</t>
   </si>
   <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos crónicos de la piel en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
   </si>
   <si>
     <t>98,68%</t>
   </si>
   <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen trastornos crónicos de la piel en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
   </si>
   <si>
     <t>97,81%</t>
   </si>
   <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos crónicos de la piel en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen trastornos crónicos de la piel en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
   </si>
   <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
   </si>
   <si>
     <t>97,42%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
   </si>
 </sst>
 </file>
@@ -1218,8 +1206,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF7E71F-D01E-432C-8A71-DFF09306A76E}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15D49D2-AF4F-44A9-AB50-6A4CE86E898F}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1351,81 +1339,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1353</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1353</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>128</v>
+      </c>
+      <c r="I5" s="7">
+        <v>85492</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>264</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>176359</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1434,151 +1426,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86845</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>177712</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>1353</v>
+        <v>4120</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>4502</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>1353</v>
+        <v>8622</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>128</v>
+        <v>622</v>
       </c>
       <c r="D8" s="7">
-        <v>85491</v>
+        <v>411967</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
-        <v>136</v>
+        <v>712</v>
       </c>
       <c r="I8" s="7">
-        <v>90867</v>
+        <v>472489</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M8" s="7">
-        <v>264</v>
+        <v>1334</v>
       </c>
       <c r="N8" s="7">
-        <v>176359</v>
+        <v>884456</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1587,153 +1581,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>130</v>
+        <v>628</v>
       </c>
       <c r="D9" s="7">
-        <v>86844</v>
+        <v>416087</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>719</v>
       </c>
       <c r="I9" s="7">
-        <v>90867</v>
+        <v>476991</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>266</v>
+        <v>1347</v>
       </c>
       <c r="N9" s="7">
-        <v>177712</v>
+        <v>893078</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>4502</v>
+        <v>1267</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>598</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="7">
-        <v>6</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4120</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="M10" s="7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>8622</v>
+        <v>1865</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>712</v>
+        <v>252</v>
       </c>
       <c r="D11" s="7">
-        <v>472489</v>
+        <v>172799</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7">
+        <v>235</v>
+      </c>
+      <c r="I11" s="7">
+        <v>157540</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="7">
-        <v>622</v>
-      </c>
-      <c r="I11" s="7">
-        <v>411967</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="K11" s="7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>1334</v>
+        <v>487</v>
       </c>
       <c r="N11" s="7">
-        <v>884456</v>
+        <v>330340</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1742,153 +1736,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>719</v>
+        <v>254</v>
       </c>
       <c r="D12" s="7">
-        <v>476991</v>
+        <v>174066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>628</v>
+        <v>236</v>
       </c>
       <c r="I12" s="7">
-        <v>416087</v>
+        <v>158138</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>1347</v>
+        <v>490</v>
       </c>
       <c r="N12" s="7">
-        <v>893078</v>
+        <v>332205</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>598</v>
+        <v>5387</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>1267</v>
+        <v>6453</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="M13" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="N13" s="7">
-        <v>1865</v>
+        <v>11840</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>235</v>
+        <v>1010</v>
       </c>
       <c r="D14" s="7">
-        <v>157540</v>
+        <v>675634</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
-        <v>252</v>
+        <v>1075</v>
       </c>
       <c r="I14" s="7">
-        <v>172799</v>
+        <v>715521</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7">
-        <v>487</v>
+        <v>2085</v>
       </c>
       <c r="N14" s="7">
-        <v>330340</v>
+        <v>1391155</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1897,216 +1891,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>236</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>158138</v>
+        <v>681021</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>254</v>
+        <v>1085</v>
       </c>
       <c r="I15" s="7">
-        <v>174066</v>
+        <v>721974</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>490</v>
+        <v>2103</v>
       </c>
       <c r="N15" s="7">
-        <v>332205</v>
+        <v>1402995</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>10</v>
-      </c>
-      <c r="D16" s="7">
-        <v>6453</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="7">
-        <v>8</v>
-      </c>
-      <c r="I16" s="7">
-        <v>5387</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M16" s="7">
-        <v>18</v>
-      </c>
-      <c r="N16" s="7">
-        <v>11840</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1076</v>
-      </c>
-      <c r="D17" s="7">
-        <v>716247</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1010</v>
-      </c>
-      <c r="I17" s="7">
-        <v>675634</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="A16" t="s">
         <v>72</v>
       </c>
-      <c r="M17" s="7">
-        <v>2086</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1391881</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D18" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>76</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2119,8 +1957,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81C7EDB-F071-409F-9D1F-7F683015FC43}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E71120-CC23-42C6-BBCE-F9508EAAC5E5}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2136,7 +1974,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2237,96 +2075,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>2658</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="7">
+        <v>7</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4936</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="7">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>7594</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>89231</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="I5" s="7">
+        <v>78601</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>239</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>167831</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2335,151 +2177,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>91889</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="I6" s="7">
+        <v>83537</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>175425</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>4936</v>
+        <v>10330</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>2658</v>
+        <v>4249</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="N7" s="7">
-        <v>7594</v>
+        <v>14579</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>110</v>
+        <v>636</v>
       </c>
       <c r="D8" s="7">
-        <v>78601</v>
+        <v>439370</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="H8" s="7">
-        <v>129</v>
+        <v>699</v>
       </c>
       <c r="I8" s="7">
-        <v>89231</v>
+        <v>488155</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="M8" s="7">
-        <v>239</v>
+        <v>1335</v>
       </c>
       <c r="N8" s="7">
-        <v>167831</v>
+        <v>927524</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>95</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,153 +2332,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>117</v>
+        <v>651</v>
       </c>
       <c r="D9" s="7">
-        <v>83537</v>
+        <v>449700</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>133</v>
+        <v>705</v>
       </c>
       <c r="I9" s="7">
-        <v>91889</v>
+        <v>492404</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>250</v>
+        <v>1356</v>
       </c>
       <c r="N9" s="7">
-        <v>175425</v>
+        <v>942103</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>4249</v>
+        <v>5290</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="H10" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>10330</v>
+        <v>1288</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M10" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>14579</v>
+        <v>6578</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>699</v>
+        <v>227</v>
       </c>
       <c r="D11" s="7">
-        <v>488155</v>
+        <v>160050</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="H11" s="7">
-        <v>636</v>
+        <v>241</v>
       </c>
       <c r="I11" s="7">
-        <v>439370</v>
+        <v>170273</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>1335</v>
+        <v>468</v>
       </c>
       <c r="N11" s="7">
-        <v>927524</v>
+        <v>330323</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,153 +2487,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>705</v>
+        <v>234</v>
       </c>
       <c r="D12" s="7">
-        <v>492404</v>
+        <v>165340</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>651</v>
+        <v>243</v>
       </c>
       <c r="I12" s="7">
-        <v>449700</v>
+        <v>171561</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>1356</v>
+        <v>477</v>
       </c>
       <c r="N12" s="7">
-        <v>942103</v>
+        <v>336901</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D13" s="7">
-        <v>1288</v>
+        <v>18278</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="H13" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>5290</v>
+        <v>10473</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M13" s="7">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="N13" s="7">
-        <v>6578</v>
+        <v>28751</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>241</v>
+        <v>992</v>
       </c>
       <c r="D14" s="7">
-        <v>170273</v>
+        <v>688650</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="H14" s="7">
-        <v>227</v>
+        <v>1050</v>
       </c>
       <c r="I14" s="7">
-        <v>160050</v>
+        <v>737028</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="M14" s="7">
-        <v>468</v>
+        <v>2042</v>
       </c>
       <c r="N14" s="7">
-        <v>330323</v>
+        <v>1425678</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,216 +2642,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>243</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>171561</v>
+        <v>706928</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>234</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>165340</v>
+        <v>747501</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>477</v>
+        <v>2083</v>
       </c>
       <c r="N15" s="7">
-        <v>336901</v>
+        <v>1454429</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>15</v>
-      </c>
-      <c r="D16" s="7">
-        <v>10473</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H16" s="7">
-        <v>26</v>
-      </c>
-      <c r="I16" s="7">
-        <v>18278</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="M16" s="7">
-        <v>41</v>
-      </c>
-      <c r="N16" s="7">
-        <v>28751</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1051</v>
-      </c>
-      <c r="D17" s="7">
-        <v>737669</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H17" s="7">
-        <v>992</v>
-      </c>
-      <c r="I17" s="7">
-        <v>688650</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2043</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1426319</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D18" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>76</v>
+      <c r="A16" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3020,8 +2708,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663CAD5E-76D5-4B91-93E2-3FF5E39D53B7}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346B184E-37BA-4AE0-B23F-2722696F7973}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3037,7 +2725,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3140,86 +2828,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1327</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1327</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D5" s="7">
+        <v>59378</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>97</v>
+      </c>
+      <c r="I5" s="7">
+        <v>67287</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>186</v>
+      </c>
+      <c r="N5" s="7">
+        <v>126666</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,147 +2928,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="7">
+        <v>59378</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I6" s="7">
+        <v>68614</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N6" s="7">
+        <v>127993</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7">
-        <v>1327</v>
+        <v>8041</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>6063</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="N7" s="7">
-        <v>1327</v>
+        <v>14104</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>97</v>
+        <v>701</v>
       </c>
       <c r="D8" s="7">
-        <v>67287</v>
+        <v>464249</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
-        <v>89</v>
+        <v>686</v>
       </c>
       <c r="I8" s="7">
-        <v>59378</v>
+        <v>482672</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
-        <v>186</v>
+        <v>1387</v>
       </c>
       <c r="N8" s="7">
-        <v>126666</v>
+        <v>946921</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,153 +3083,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>99</v>
+        <v>714</v>
       </c>
       <c r="D9" s="7">
-        <v>68614</v>
+        <v>472290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>89</v>
+        <v>695</v>
       </c>
       <c r="I9" s="7">
-        <v>59378</v>
+        <v>488735</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>188</v>
+        <v>1409</v>
       </c>
       <c r="N9" s="7">
-        <v>127993</v>
+        <v>961025</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1231</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H10" s="7">
+        <v>7</v>
+      </c>
+      <c r="I10" s="7">
+        <v>5315</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M10" s="7">
         <v>9</v>
       </c>
-      <c r="D10" s="7">
-        <v>6063</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H10" s="7">
-        <v>13</v>
-      </c>
-      <c r="I10" s="7">
-        <v>8041</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M10" s="7">
-        <v>22</v>
-      </c>
       <c r="N10" s="7">
-        <v>14104</v>
+        <v>6546</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>686</v>
+        <v>256</v>
       </c>
       <c r="D11" s="7">
-        <v>482672</v>
+        <v>171472</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>701</v>
+        <v>264</v>
       </c>
       <c r="I11" s="7">
-        <v>464249</v>
+        <v>182180</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="M11" s="7">
-        <v>1387</v>
+        <v>520</v>
       </c>
       <c r="N11" s="7">
-        <v>946921</v>
+        <v>353651</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,153 +3238,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>695</v>
+        <v>258</v>
       </c>
       <c r="D12" s="7">
-        <v>488735</v>
+        <v>172703</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>714</v>
+        <v>271</v>
       </c>
       <c r="I12" s="7">
-        <v>472290</v>
+        <v>187495</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>1409</v>
+        <v>529</v>
       </c>
       <c r="N12" s="7">
-        <v>961025</v>
+        <v>360197</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>5315</v>
+        <v>9273</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>1231</v>
+        <v>12706</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="N13" s="7">
-        <v>6546</v>
+        <v>21978</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>264</v>
+        <v>1046</v>
       </c>
       <c r="D14" s="7">
-        <v>182180</v>
+        <v>695098</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>115</v>
       </c>
       <c r="H14" s="7">
-        <v>256</v>
+        <v>1047</v>
       </c>
       <c r="I14" s="7">
-        <v>171472</v>
+        <v>732138</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="M14" s="7">
-        <v>520</v>
+        <v>2093</v>
       </c>
       <c r="N14" s="7">
-        <v>353651</v>
+        <v>1427237</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,216 +3393,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>271</v>
+        <v>1061</v>
       </c>
       <c r="D15" s="7">
-        <v>187495</v>
+        <v>704371</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>258</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>172703</v>
+        <v>744844</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>529</v>
+        <v>2126</v>
       </c>
       <c r="N15" s="7">
-        <v>360197</v>
+        <v>1449215</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>18</v>
-      </c>
-      <c r="D16" s="7">
-        <v>12706</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="H16" s="7">
-        <v>15</v>
-      </c>
-      <c r="I16" s="7">
-        <v>9273</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="M16" s="7">
-        <v>33</v>
-      </c>
-      <c r="N16" s="7">
-        <v>21978</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1047</v>
-      </c>
-      <c r="D17" s="7">
-        <v>732138</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1046</v>
-      </c>
-      <c r="I17" s="7">
-        <v>695098</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2093</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1427237</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D18" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>76</v>
+      <c r="A16" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3909,8 +3459,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9036B0FE-7B1F-4856-8C06-1E4DA6CBA42F}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A01F6C-560A-459C-A057-6792029818E9}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3926,7 +3476,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4027,96 +3577,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2177</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>3713</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>194</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>5890</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="D5" s="7">
+        <v>52501</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>58291</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>110792</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,151 +3679,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D6" s="7">
+        <v>54678</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>116682</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>3639</v>
+        <v>14131</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>2261</v>
+        <v>16215</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="M7" s="7">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="N7" s="7">
-        <v>5899</v>
+        <v>30346</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>79</v>
+        <v>623</v>
       </c>
       <c r="D8" s="7">
-        <v>55118</v>
+        <v>445563</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="H8" s="7">
-        <v>65</v>
+        <v>632</v>
       </c>
       <c r="I8" s="7">
-        <v>48941</v>
+        <v>500404</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="M8" s="7">
-        <v>144</v>
+        <v>1255</v>
       </c>
       <c r="N8" s="7">
-        <v>104060</v>
+        <v>945967</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,153 +3834,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>83</v>
+        <v>642</v>
       </c>
       <c r="D9" s="7">
-        <v>58757</v>
+        <v>459694</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>69</v>
+        <v>656</v>
       </c>
       <c r="I9" s="7">
-        <v>51202</v>
+        <v>516619</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>152</v>
+        <v>1298</v>
       </c>
       <c r="N9" s="7">
-        <v>109959</v>
+        <v>976313</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>15599</v>
+        <v>6023</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>14321</v>
+        <v>4843</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="N10" s="7">
-        <v>29920</v>
+        <v>10866</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>632</v>
+        <v>221</v>
       </c>
       <c r="D11" s="7">
-        <v>476765</v>
+        <v>143528</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>623</v>
+        <v>232</v>
       </c>
       <c r="I11" s="7">
-        <v>434815</v>
+        <v>178506</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
-        <v>1255</v>
+        <v>453</v>
       </c>
       <c r="N11" s="7">
-        <v>911580</v>
+        <v>322034</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,153 +3989,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>656</v>
+        <v>230</v>
       </c>
       <c r="D12" s="7">
-        <v>492364</v>
+        <v>149551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>642</v>
+        <v>238</v>
       </c>
       <c r="I12" s="7">
-        <v>449136</v>
+        <v>183349</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>1298</v>
+        <v>468</v>
       </c>
       <c r="N12" s="7">
-        <v>941500</v>
+        <v>332900</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D13" s="7">
-        <v>4736</v>
+        <v>22331</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="I13" s="7">
-        <v>6131</v>
+        <v>24771</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="M13" s="7">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="N13" s="7">
-        <v>10867</v>
+        <v>47102</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>232</v>
+        <v>909</v>
       </c>
       <c r="D14" s="7">
-        <v>169847</v>
+        <v>641592</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>194</v>
+        <v>116</v>
       </c>
       <c r="H14" s="7">
-        <v>221</v>
+        <v>943</v>
       </c>
       <c r="I14" s="7">
-        <v>145239</v>
+        <v>737201</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
-        <v>453</v>
+        <v>1852</v>
       </c>
       <c r="N14" s="7">
-        <v>315085</v>
+        <v>1378793</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,216 +4144,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>238</v>
+        <v>941</v>
       </c>
       <c r="D15" s="7">
-        <v>174583</v>
+        <v>663923</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>230</v>
+        <v>977</v>
       </c>
       <c r="I15" s="7">
-        <v>151370</v>
+        <v>761972</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>468</v>
+        <v>1918</v>
       </c>
       <c r="N15" s="7">
-        <v>325952</v>
+        <v>1425895</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>34</v>
-      </c>
-      <c r="D16" s="7">
-        <v>23974</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H16" s="7">
-        <v>32</v>
-      </c>
-      <c r="I16" s="7">
-        <v>22713</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="M16" s="7">
-        <v>66</v>
-      </c>
-      <c r="N16" s="7">
-        <v>46687</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>943</v>
-      </c>
-      <c r="D17" s="7">
-        <v>701730</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" s="7">
-        <v>910</v>
-      </c>
-      <c r="I17" s="7">
-        <v>630166</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1853</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1331896</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>977</v>
-      </c>
-      <c r="D18" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>942</v>
-      </c>
-      <c r="I18" s="7">
-        <v>652879</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1919</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1378583</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>76</v>
+      <c r="A16" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
